--- a/NBAcademix/media/performance_documents/SECOND__YEAR_-ACADEMIC_YEAR_2021-22.xlsx
+++ b/NBAcademix/media/performance_documents/SECOND__YEAR_-ACADEMIC_YEAR_2021-22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAISHANAVI RAO P\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B273DFBB-F1A4-434D-B5C7-EC5CDD6A1C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086D9EC4-4ADC-4703-B27E-5123495F894E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3276" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021-2022" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="230">
   <si>
     <t>SL.NO</t>
   </si>
@@ -49,18 +49,6 @@
   </si>
   <si>
     <t>SNEHA</t>
-  </si>
-  <si>
-    <t>Mean of percentage of all successful students(x)</t>
-  </si>
-  <si>
-    <t>Total number of sucessful students(y)</t>
-  </si>
-  <si>
-    <t>Total no.of students appeared in the examination</t>
-  </si>
-  <si>
-    <t>Academic Performance Index(API)=X*(Y/Z)</t>
   </si>
   <si>
     <t>4MW20CS001</t>
@@ -853,10 +841,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1074,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113:G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1102,7 +1090,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -1116,10 +1104,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5">
         <v>6.95</v>
@@ -1140,10 +1128,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5">
         <v>6.44</v>
@@ -1164,10 +1152,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5">
         <v>5.67</v>
@@ -1188,10 +1176,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5">
         <v>6.65</v>
@@ -1212,10 +1200,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" s="5">
         <v>8.92</v>
@@ -1236,10 +1224,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7" s="5">
         <v>4.4400000000000004</v>
@@ -1260,10 +1248,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" s="5">
         <v>6.33</v>
@@ -1284,10 +1272,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D9" s="5">
         <v>5.63</v>
@@ -1308,10 +1296,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" s="5">
         <v>7.29</v>
@@ -1332,10 +1320,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D11" s="5">
         <v>6.8</v>
@@ -1356,10 +1344,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D12" s="5">
         <v>6</v>
@@ -1380,10 +1368,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D13" s="5">
         <v>8.2899999999999991</v>
@@ -1404,10 +1392,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D14" s="5">
         <v>5.55</v>
@@ -1428,10 +1416,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D15" s="5">
         <v>5.14</v>
@@ -1452,10 +1440,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D16" s="5">
         <v>7.96</v>
@@ -1476,10 +1464,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D17" s="5">
         <v>6.83</v>
@@ -1500,10 +1488,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D18" s="5">
         <v>5.86</v>
@@ -1524,10 +1512,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D19" s="5">
         <v>7.29</v>
@@ -1548,10 +1536,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D20" s="5">
         <v>7.08</v>
@@ -1572,10 +1560,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D21" s="5">
         <v>6.11</v>
@@ -1596,10 +1584,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D22" s="5">
         <v>6.14</v>
@@ -1620,10 +1608,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D23" s="5">
         <v>6.63</v>
@@ -1644,10 +1632,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D24" s="5">
         <v>7.5</v>
@@ -1668,10 +1656,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D25" s="5">
         <v>7.92</v>
@@ -1692,10 +1680,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D26" s="5">
         <v>7</v>
@@ -1716,10 +1704,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D27" s="5">
         <v>7.04</v>
@@ -1740,10 +1728,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D28" s="5">
         <v>6</v>
@@ -1764,10 +1752,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D29" s="5">
         <v>9</v>
@@ -1788,10 +1776,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D30" s="5">
         <v>6.92</v>
@@ -1812,10 +1800,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D31" s="5">
         <v>6.1</v>
@@ -1836,10 +1824,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D32" s="5">
         <v>7.22</v>
@@ -1860,10 +1848,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D33" s="5">
         <v>7</v>
@@ -1884,10 +1872,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D34" s="5">
         <v>5.67</v>
@@ -1908,10 +1896,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D35" s="5">
         <v>6.08</v>
@@ -1932,10 +1920,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D36" s="5">
         <v>7.63</v>
@@ -1956,10 +1944,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D37" s="5">
         <v>6</v>
@@ -1980,10 +1968,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D38" s="5">
         <v>8.08</v>
@@ -2004,10 +1992,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D39" s="5">
         <v>7.08</v>
@@ -2028,10 +2016,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D40" s="5">
         <v>7.29</v>
@@ -2052,10 +2040,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D41" s="5">
         <v>6.54</v>
@@ -2076,10 +2064,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D42" s="5">
         <v>7.07</v>
@@ -2100,10 +2088,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D43" s="5">
         <v>7.42</v>
@@ -2124,10 +2112,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D44" s="5">
         <v>7.96</v>
@@ -2148,10 +2136,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D45" s="5">
         <v>8.5</v>
@@ -2172,10 +2160,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D46" s="5">
         <v>7.17</v>
@@ -2196,10 +2184,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D47" s="5">
         <v>4.8</v>
@@ -2220,10 +2208,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D48" s="5">
         <v>7.5</v>
@@ -2244,10 +2232,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D49" s="5">
         <v>6.06</v>
@@ -2268,10 +2256,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D50" s="5">
         <v>7.14</v>
@@ -2292,10 +2280,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D51" s="5">
         <v>8.14</v>
@@ -2316,10 +2304,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D52" s="5">
         <v>6.88</v>
@@ -2340,10 +2328,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D53" s="5">
         <v>8.2100000000000009</v>
@@ -2364,10 +2352,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D54" s="5">
         <v>5.18</v>
@@ -2388,10 +2376,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D55" s="5">
         <v>5</v>
@@ -2412,10 +2400,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D56" s="2">
         <v>6.9</v>
@@ -2436,10 +2424,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D57" s="2">
         <v>7.63</v>
@@ -2460,10 +2448,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D58" s="2">
         <v>7.42</v>
@@ -2484,10 +2472,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D59" s="2">
         <v>7.33</v>
@@ -2508,10 +2496,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D60" s="2">
         <v>6.46</v>
@@ -2532,10 +2520,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D61" s="2">
         <v>6.63</v>
@@ -2556,10 +2544,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D62" s="2">
         <v>8.0399999999999991</v>
@@ -2580,10 +2568,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D63" s="2">
         <v>8.5399999999999991</v>
@@ -2604,10 +2592,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D64" s="2">
         <v>8</v>
@@ -2628,10 +2616,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D65" s="2">
         <v>4.4000000000000004</v>
@@ -2652,10 +2640,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D66" s="2">
         <v>8</v>
@@ -2676,10 +2664,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D67" s="2">
         <v>6.95</v>
@@ -2700,10 +2688,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D68" s="2">
         <v>6.88</v>
@@ -2724,10 +2712,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D69" s="2">
         <v>7.38</v>
@@ -2748,10 +2736,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D70" s="2">
         <v>6.83</v>
@@ -2772,10 +2760,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D71" s="2">
         <v>7.81</v>
@@ -2796,10 +2784,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D72" s="2">
         <v>7.79</v>
@@ -2820,10 +2808,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D73" s="2">
         <v>5.56</v>
@@ -2844,10 +2832,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D74" s="2">
         <v>7.42</v>
@@ -2868,10 +2856,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D75" s="2">
         <v>8.8800000000000008</v>
@@ -2892,10 +2880,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D76" s="2">
         <v>7.75</v>
@@ -2916,10 +2904,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D77" s="2">
         <v>8.25</v>
@@ -2940,10 +2928,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D78" s="2">
         <v>7.9</v>
@@ -2964,10 +2952,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D79" s="2">
         <v>6.53</v>
@@ -2988,10 +2976,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D80" s="2">
         <v>7.58</v>
@@ -3012,10 +3000,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D81" s="2">
         <v>8.2899999999999991</v>
@@ -3036,10 +3024,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D82" s="2">
         <v>7.48</v>
@@ -3060,10 +3048,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D83" s="2">
         <v>6.92</v>
@@ -3084,10 +3072,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D84" s="2">
         <v>7.25</v>
@@ -3108,10 +3096,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D85" s="2">
         <v>6</v>
@@ -3132,10 +3120,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D86" s="2">
         <v>7.46</v>
@@ -3156,10 +3144,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D87" s="2">
         <v>7.38</v>
@@ -3180,7 +3168,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>7</v>
@@ -3204,10 +3192,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D89" s="2">
         <v>8</v>
@@ -3228,10 +3216,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D90" s="2">
         <v>7.29</v>
@@ -3252,10 +3240,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D91" s="2">
         <v>7.33</v>
@@ -3276,10 +3264,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D92" s="2">
         <v>7.42</v>
@@ -3300,10 +3288,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D93" s="2">
         <v>1.25</v>
@@ -3324,10 +3312,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D94" s="2">
         <v>8.1300000000000008</v>
@@ -3348,10 +3336,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D95" s="2">
         <v>7.5</v>
@@ -3372,10 +3360,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D96" s="2">
         <v>7.38</v>
@@ -3396,10 +3384,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D97" s="2">
         <v>6.88</v>
@@ -3420,10 +3408,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D98" s="2">
         <v>6.88</v>
@@ -3444,10 +3432,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D99" s="2">
         <v>7.75</v>
@@ -3468,10 +3456,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D100" s="2">
         <v>6.81</v>
@@ -3492,10 +3480,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D101" s="2">
         <v>6.48</v>
@@ -3516,10 +3504,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D102" s="2">
         <v>8.2899999999999991</v>
@@ -3540,10 +3528,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D103" s="2">
         <v>7.96</v>
@@ -3564,10 +3552,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D104" s="2">
         <v>8.43</v>
@@ -3588,10 +3576,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D105" s="2">
         <v>7.75</v>
@@ -3612,10 +3600,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D106" s="2">
         <v>7.38</v>
@@ -3636,10 +3624,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D107" s="2">
         <v>6.54</v>
@@ -3660,10 +3648,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D108" s="2">
         <v>6.56</v>
@@ -3684,10 +3672,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D109" s="2">
         <v>5.14</v>
@@ -3708,10 +3696,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D110" s="2">
         <v>6.19</v>
@@ -3732,10 +3720,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D111" s="2">
         <v>6.33</v>
@@ -3756,10 +3744,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D112" s="2">
         <v>6.53</v>
@@ -3782,9 +3770,7 @@
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="6"/>
-      <c r="G113" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="G113" s="7"/>
     </row>
     <row r="114" spans="1:7" ht="18" customHeight="1">
       <c r="A114" s="4"/>
@@ -3796,46 +3782,27 @@
       <c r="G114" s="7"/>
     </row>
     <row r="115" spans="1:7" ht="14.25" customHeight="1">
-      <c r="F115" s="6">
-        <f>SUM(F2:F112)/111</f>
-        <v>7.0908558558558559</v>
-      </c>
+      <c r="F115" s="6"/>
     </row>
     <row r="116" spans="1:7" ht="14.25" customHeight="1">
-      <c r="B116" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="10"/>
-      <c r="D116" s="8">
-        <v>7.1</v>
-      </c>
+      <c r="B116" s="10"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="8"/>
     </row>
     <row r="117" spans="1:7" ht="14.25" customHeight="1">
-      <c r="B117" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C117" s="10"/>
-      <c r="D117" s="8">
-        <v>111</v>
-      </c>
+      <c r="B117" s="10"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:7" ht="14.25" customHeight="1">
-      <c r="B118" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C118" s="10"/>
-      <c r="D118" s="8">
-        <v>111</v>
-      </c>
+      <c r="B118" s="10"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="8"/>
     </row>
     <row r="119" spans="1:7" ht="14.25" customHeight="1">
-      <c r="B119" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C119" s="10"/>
-      <c r="D119" s="8">
-        <v>7.1</v>
-      </c>
+      <c r="B119" s="10"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="8"/>
     </row>
     <row r="120" spans="1:7" ht="14.25" customHeight="1"/>
     <row r="121" spans="1:7" ht="14.25" customHeight="1"/>
